--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H2">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N2">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O2">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P2">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q2">
-        <v>24.34342014825967</v>
+        <v>190.5696886125908</v>
       </c>
       <c r="R2">
-        <v>219.090781334337</v>
+        <v>1715.127197513317</v>
       </c>
       <c r="S2">
-        <v>0.0008383333068749063</v>
+        <v>0.003331573996949107</v>
       </c>
       <c r="T2">
-        <v>0.0008383333068749066</v>
+        <v>0.003331573996949107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H3">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.883633</v>
       </c>
       <c r="O3">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P3">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q3">
-        <v>14.82682319681078</v>
+        <v>43.64845588874011</v>
       </c>
       <c r="R3">
-        <v>133.441408771297</v>
+        <v>392.836102998661</v>
       </c>
       <c r="S3">
-        <v>0.0005106028505990587</v>
+        <v>0.0007630702537460044</v>
       </c>
       <c r="T3">
-        <v>0.0005106028505990589</v>
+        <v>0.0007630702537460042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H4">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N4">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q4">
-        <v>5.67156158517789</v>
+        <v>21.81253296144844</v>
       </c>
       <c r="R4">
-        <v>51.044054266601</v>
+        <v>196.312796653036</v>
       </c>
       <c r="S4">
-        <v>0.0001953159806588139</v>
+        <v>0.00038133067305204</v>
       </c>
       <c r="T4">
-        <v>0.0001953159806588139</v>
+        <v>0.00038133067305204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H5">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N5">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O5">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P5">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q5">
-        <v>0.1687694949001111</v>
+        <v>2.415664191125111</v>
       </c>
       <c r="R5">
-        <v>1.518925454101</v>
+        <v>21.740977720126</v>
       </c>
       <c r="S5">
-        <v>5.812046454340667E-06</v>
+        <v>4.22310812548696E-05</v>
       </c>
       <c r="T5">
-        <v>5.81204645434067E-06</v>
+        <v>4.22310812548696E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
         <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J6">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N6">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O6">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P6">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q6">
-        <v>15426.66532596499</v>
+        <v>41022.63109741695</v>
       </c>
       <c r="R6">
-        <v>138839.9879336849</v>
+        <v>369203.6798767526</v>
       </c>
       <c r="S6">
-        <v>0.5312600808762385</v>
+        <v>0.7171651066105612</v>
       </c>
       <c r="T6">
-        <v>0.5312600808762388</v>
+        <v>0.7171651066105612</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
         <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J7">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>4.883633</v>
       </c>
       <c r="O7">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P7">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q7">
-        <v>9395.904022993509</v>
+        <v>9395.904022993511</v>
       </c>
       <c r="R7">
-        <v>84563.13620694158</v>
+        <v>84563.13620694159</v>
       </c>
       <c r="S7">
-        <v>0.3235740599596277</v>
+        <v>0.1642609050197425</v>
       </c>
       <c r="T7">
-        <v>0.3235740599596278</v>
+        <v>0.1642609050197425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
         <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J8">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N8">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q8">
-        <v>3594.12448691577</v>
+        <v>4695.434512656427</v>
       </c>
       <c r="R8">
-        <v>32347.12038224193</v>
+        <v>42258.91061390785</v>
       </c>
       <c r="S8">
-        <v>0.1237736623730573</v>
+        <v>0.08208644113673606</v>
       </c>
       <c r="T8">
-        <v>0.1237736623730574</v>
+        <v>0.08208644113673606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
         <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J9">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N9">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O9">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P9">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q9">
-        <v>106.9508926518815</v>
+        <v>520.0034784609409</v>
       </c>
       <c r="R9">
-        <v>962.5580338669338</v>
+        <v>4680.031306148469</v>
       </c>
       <c r="S9">
-        <v>0.003683151133407393</v>
+        <v>0.009090795497312343</v>
       </c>
       <c r="T9">
-        <v>0.003683151133407394</v>
+        <v>0.009090795497312345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H10">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N10">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O10">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P10">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q10">
-        <v>250.373488705275</v>
+        <v>941.3363180343695</v>
       </c>
       <c r="R10">
-        <v>2253.361398347475</v>
+        <v>8472.026862309327</v>
       </c>
       <c r="S10">
-        <v>0.008622306703896162</v>
+        <v>0.01645661291876571</v>
       </c>
       <c r="T10">
-        <v>0.008622306703896163</v>
+        <v>0.01645661291876571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H11">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.883633</v>
       </c>
       <c r="O11">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P11">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q11">
-        <v>152.494736877275</v>
+        <v>215.6055197094842</v>
       </c>
       <c r="R11">
-        <v>1372.452631895475</v>
+        <v>1940.449677385358</v>
       </c>
       <c r="S11">
-        <v>0.005251579945165764</v>
+        <v>0.003769254954931788</v>
       </c>
       <c r="T11">
-        <v>0.005251579945165766</v>
+        <v>0.003769254954931787</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H12">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N12">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q12">
-        <v>58.33233998507501</v>
+        <v>107.7449914224009</v>
       </c>
       <c r="R12">
-        <v>524.991059865675</v>
+        <v>969.7049228016079</v>
       </c>
       <c r="S12">
-        <v>0.002008836193912354</v>
+        <v>0.001883617559212715</v>
       </c>
       <c r="T12">
-        <v>0.002008836193912354</v>
+        <v>0.001883617559212715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H13">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N13">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O13">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P13">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q13">
-        <v>1.735804047575</v>
+        <v>11.93239308851422</v>
       </c>
       <c r="R13">
-        <v>15.622236428175</v>
+        <v>107.391537796628</v>
       </c>
       <c r="S13">
-        <v>5.977723501578019E-05</v>
+        <v>0.0002086042687296637</v>
       </c>
       <c r="T13">
-        <v>5.977723501578021E-05</v>
+        <v>0.0002086042687296637</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H14">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I14">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J14">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N14">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O14">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P14">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q14">
-        <v>3.399793123019667</v>
+        <v>23.63901309733433</v>
       </c>
       <c r="R14">
-        <v>30.598138107177</v>
+        <v>212.751117876009</v>
       </c>
       <c r="S14">
-        <v>0.0001170813219405163</v>
+        <v>0.0004132615313693446</v>
       </c>
       <c r="T14">
-        <v>0.0001170813219405164</v>
+        <v>0.0004132615313693446</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H15">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I15">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J15">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.883633</v>
       </c>
       <c r="O15">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P15">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q15">
-        <v>2.070708685704111</v>
+        <v>5.414326002966333</v>
       </c>
       <c r="R15">
-        <v>18.636378171337</v>
+        <v>48.728934026697</v>
       </c>
       <c r="S15">
-        <v>7.13106067055669E-05</v>
+        <v>9.465423307249009E-05</v>
       </c>
       <c r="T15">
-        <v>7.131060670556692E-05</v>
+        <v>9.465423307249008E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H16">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I16">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J16">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N16">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q16">
-        <v>0.7920882093245556</v>
+        <v>2.705712309841333</v>
       </c>
       <c r="R16">
-        <v>7.128793883921</v>
+        <v>24.351410788572</v>
       </c>
       <c r="S16">
-        <v>2.727775817101649E-05</v>
+        <v>4.730175528080768E-05</v>
       </c>
       <c r="T16">
-        <v>2.72777581710165E-05</v>
+        <v>4.730175528080768E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H17">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I17">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J17">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N17">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O17">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P17">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q17">
-        <v>0.02357028571344444</v>
+        <v>0.2996484796113333</v>
       </c>
       <c r="R17">
-        <v>0.212132571421</v>
+        <v>2.696836316502</v>
       </c>
       <c r="S17">
-        <v>8.117082745889705E-07</v>
+        <v>5.238509283225516E-06</v>
       </c>
       <c r="T17">
-        <v>8.11708274588971E-07</v>
+        <v>5.238509283225517E-06</v>
       </c>
     </row>
   </sheetData>
